--- a/Code/Results/Cases/Case_0_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003093271362367</v>
+        <v>1.066423424578895</v>
       </c>
       <c r="D2">
-        <v>1.016117081669535</v>
+        <v>1.07594709080343</v>
       </c>
       <c r="E2">
-        <v>1.008043433875847</v>
+        <v>1.061311736806519</v>
       </c>
       <c r="F2">
-        <v>1.017818084517053</v>
+        <v>1.083119670135001</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0428480050145</v>
+        <v>1.041389914269709</v>
       </c>
       <c r="J2">
-        <v>1.025181855211048</v>
+        <v>1.071373501933423</v>
       </c>
       <c r="K2">
-        <v>1.027356355094275</v>
+        <v>1.078632317410541</v>
       </c>
       <c r="L2">
-        <v>1.019391836810482</v>
+        <v>1.06403614080342</v>
       </c>
       <c r="M2">
-        <v>1.029034643168611</v>
+        <v>1.085786113961695</v>
       </c>
       <c r="N2">
-        <v>1.02663773103545</v>
+        <v>1.072894975194427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013160935963548</v>
+        <v>1.068302406642358</v>
       </c>
       <c r="D3">
-        <v>1.025786096081071</v>
+        <v>1.077805316909735</v>
       </c>
       <c r="E3">
-        <v>1.016580329583049</v>
+        <v>1.062944493270285</v>
       </c>
       <c r="F3">
-        <v>1.028165293816199</v>
+        <v>1.08513035300864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045545427203179</v>
+        <v>1.041779487324899</v>
       </c>
       <c r="J3">
-        <v>1.033299139035473</v>
+        <v>1.072904081978044</v>
       </c>
       <c r="K3">
-        <v>1.036099336683739</v>
+        <v>1.080305409465706</v>
       </c>
       <c r="L3">
-        <v>1.027005367936937</v>
+        <v>1.065481432677228</v>
       </c>
       <c r="M3">
-        <v>1.038450044456081</v>
+        <v>1.087612682570042</v>
       </c>
       <c r="N3">
-        <v>1.034766542333972</v>
+        <v>1.074427728838272</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019419635634892</v>
+        <v>1.069514431094897</v>
       </c>
       <c r="D4">
-        <v>1.031802871004428</v>
+        <v>1.079004231500361</v>
       </c>
       <c r="E4">
-        <v>1.02189347961803</v>
+        <v>1.063997719295265</v>
       </c>
       <c r="F4">
-        <v>1.034606554154264</v>
+        <v>1.086428074374454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047206016452336</v>
+        <v>1.042028666562766</v>
       </c>
       <c r="J4">
-        <v>1.03833930042321</v>
+        <v>1.073890400340859</v>
       </c>
       <c r="K4">
-        <v>1.04153203680569</v>
+        <v>1.081384096031696</v>
       </c>
       <c r="L4">
-        <v>1.031734659727857</v>
+        <v>1.0664128832819</v>
       </c>
       <c r="M4">
-        <v>1.044304506568847</v>
+        <v>1.088790862341889</v>
       </c>
       <c r="N4">
-        <v>1.039813861328994</v>
+        <v>1.075415447886293</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021994145866403</v>
+        <v>1.070023075806747</v>
       </c>
       <c r="D5">
-        <v>1.034279188412256</v>
+        <v>1.079507440618441</v>
       </c>
       <c r="E5">
-        <v>1.024080349696753</v>
+        <v>1.064439727451967</v>
       </c>
       <c r="F5">
-        <v>1.037258201401748</v>
+        <v>1.086972860973436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047885100624605</v>
+        <v>1.042132732163872</v>
       </c>
       <c r="J5">
-        <v>1.040411027227444</v>
+        <v>1.074304090895797</v>
       </c>
       <c r="K5">
-        <v>1.043766091490351</v>
+        <v>1.081836656133082</v>
       </c>
       <c r="L5">
-        <v>1.033679041146237</v>
+        <v>1.066803582708729</v>
       </c>
       <c r="M5">
-        <v>1.046712960347925</v>
+        <v>1.089285294713678</v>
       </c>
       <c r="N5">
-        <v>1.041888530222919</v>
+        <v>1.075829725929271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022423218836479</v>
+        <v>1.070108427856933</v>
       </c>
       <c r="D6">
-        <v>1.034691971667874</v>
+        <v>1.07959188442508</v>
       </c>
       <c r="E6">
-        <v>1.024444890941977</v>
+        <v>1.064513897998716</v>
       </c>
       <c r="F6">
-        <v>1.037700248495625</v>
+        <v>1.087064288159395</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047998040503832</v>
+        <v>1.042150164958043</v>
       </c>
       <c r="J6">
-        <v>1.040756212438855</v>
+        <v>1.07437349567744</v>
       </c>
       <c r="K6">
-        <v>1.044138381100021</v>
+        <v>1.081912589543742</v>
       </c>
       <c r="L6">
-        <v>1.034003033395984</v>
+        <v>1.066869131558899</v>
       </c>
       <c r="M6">
-        <v>1.047114369329889</v>
+        <v>1.089368261360324</v>
       </c>
       <c r="N6">
-        <v>1.042234205636924</v>
+        <v>1.075899229273664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019454253298302</v>
+        <v>1.069521231101833</v>
       </c>
       <c r="D7">
-        <v>1.031836163207619</v>
+        <v>1.079010958580107</v>
       </c>
       <c r="E7">
-        <v>1.021922879936218</v>
+        <v>1.064003628425592</v>
       </c>
       <c r="F7">
-        <v>1.034642201013803</v>
+        <v>1.086435356858808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047215163592702</v>
+        <v>1.04203005979418</v>
       </c>
       <c r="J7">
-        <v>1.038367163714317</v>
+        <v>1.073895931834895</v>
       </c>
       <c r="K7">
-        <v>1.041562079404758</v>
+        <v>1.081390146751719</v>
       </c>
       <c r="L7">
-        <v>1.031760808614495</v>
+        <v>1.066418107273171</v>
       </c>
       <c r="M7">
-        <v>1.044336890580459</v>
+        <v>1.088797472381285</v>
       </c>
       <c r="N7">
-        <v>1.039841764189169</v>
+        <v>1.075420987235685</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006551578990641</v>
+        <v>1.067059234801739</v>
       </c>
       <c r="D8">
-        <v>1.019437135122987</v>
+        <v>1.076575819479822</v>
       </c>
       <c r="E8">
-        <v>1.010974525879281</v>
+        <v>1.061864222833341</v>
       </c>
       <c r="F8">
-        <v>1.021370509404849</v>
+        <v>1.083799890686113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043777994510126</v>
+        <v>1.041522175951737</v>
       </c>
       <c r="J8">
-        <v>1.027971425908708</v>
+        <v>1.071891621183509</v>
       </c>
       <c r="K8">
-        <v>1.030360100620862</v>
+        <v>1.07919856824161</v>
       </c>
       <c r="L8">
-        <v>1.022007864265996</v>
+        <v>1.064525369667447</v>
       </c>
       <c r="M8">
-        <v>1.032268579975245</v>
+        <v>1.086404195721812</v>
       </c>
       <c r="N8">
-        <v>1.029431263243469</v>
+        <v>1.073413830233277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9816162880512243</v>
+        <v>1.062690857370306</v>
       </c>
       <c r="D9">
-        <v>0.9955294128940583</v>
+        <v>1.072257267114151</v>
       </c>
       <c r="E9">
-        <v>0.9898747156985083</v>
+        <v>1.058068483275229</v>
       </c>
       <c r="F9">
-        <v>0.9957986461280042</v>
+        <v>1.0791294710614</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037004654765862</v>
+        <v>1.040604776004226</v>
       </c>
       <c r="J9">
-        <v>1.007835352739126</v>
+        <v>1.068327858250897</v>
       </c>
       <c r="K9">
-        <v>1.008695441085122</v>
+        <v>1.075305934923642</v>
       </c>
       <c r="L9">
-        <v>1.003134232864636</v>
+        <v>1.061160712396543</v>
       </c>
       <c r="M9">
-        <v>1.00896025714117</v>
+        <v>1.082157489065545</v>
       </c>
       <c r="N9">
-        <v>1.009266594540346</v>
+        <v>1.069845006348531</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9631082065622389</v>
+        <v>1.059757149637833</v>
       </c>
       <c r="D10">
-        <v>0.9778303708627666</v>
+        <v>1.069358517532472</v>
       </c>
       <c r="E10">
-        <v>0.974267909891974</v>
+        <v>1.055519581534449</v>
       </c>
       <c r="F10">
-        <v>0.9768771437778474</v>
+        <v>1.075996810603094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031894578313642</v>
+        <v>1.039977763267059</v>
       </c>
       <c r="J10">
-        <v>0.9928660400234258</v>
+        <v>1.065929511358373</v>
       </c>
       <c r="K10">
-        <v>0.9926117837826828</v>
+        <v>1.072689016133125</v>
       </c>
       <c r="L10">
-        <v>0.9891178451287714</v>
+        <v>1.058896858555863</v>
       </c>
       <c r="M10">
-        <v>0.9916768274733008</v>
+        <v>1.079305338907699</v>
       </c>
       <c r="N10">
-        <v>0.9942760236835856</v>
+        <v>1.067443253528325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9545290246764443</v>
+        <v>1.058481448297923</v>
       </c>
       <c r="D11">
-        <v>0.9696398014590065</v>
+        <v>1.068098380126853</v>
       </c>
       <c r="E11">
-        <v>0.9670505380578178</v>
+        <v>1.054411279408068</v>
       </c>
       <c r="F11">
-        <v>0.9681221844347723</v>
+        <v>1.074635524158238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029508252101758</v>
+        <v>1.039702531388888</v>
       </c>
       <c r="J11">
-        <v>0.9859239163734256</v>
+        <v>1.064885427345862</v>
       </c>
       <c r="K11">
-        <v>0.985157913962481</v>
+        <v>1.0715504308365</v>
       </c>
       <c r="L11">
-        <v>0.9826217838955442</v>
+        <v>1.057911444877968</v>
       </c>
       <c r="M11">
-        <v>0.983671393925804</v>
+        <v>1.078065070431861</v>
       </c>
       <c r="N11">
-        <v>0.9873240414217296</v>
+        <v>1.066397686796759</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9512446264574584</v>
+        <v>1.058006762105004</v>
       </c>
       <c r="D12">
-        <v>0.9665064883693262</v>
+        <v>1.067629540372663</v>
       </c>
       <c r="E12">
-        <v>0.9642904562789696</v>
+        <v>1.053998893689268</v>
       </c>
       <c r="F12">
-        <v>0.9647730615786182</v>
+        <v>1.07412913173244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02859225343622</v>
+        <v>1.039599731083466</v>
       </c>
       <c r="J12">
-        <v>0.983265987533419</v>
+        <v>1.064496748689955</v>
       </c>
       <c r="K12">
-        <v>0.9823047884830272</v>
+        <v>1.071126670004344</v>
       </c>
       <c r="L12">
-        <v>0.980135334818257</v>
+        <v>1.057544625655912</v>
       </c>
       <c r="M12">
-        <v>0.9806077721998057</v>
+        <v>1.077603564352484</v>
       </c>
       <c r="N12">
-        <v>0.9846623380179015</v>
+        <v>1.066008456172578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9519537998938107</v>
+        <v>1.058108622040417</v>
       </c>
       <c r="D13">
-        <v>0.967182930234212</v>
+        <v>1.067730143253113</v>
       </c>
       <c r="E13">
-        <v>0.9648862768991558</v>
+        <v>1.054087384416632</v>
       </c>
       <c r="F13">
-        <v>0.9654960914063214</v>
+        <v>1.074237788977102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028790143353711</v>
+        <v>1.039621807855809</v>
       </c>
       <c r="J13">
-        <v>0.9838398994186429</v>
+        <v>1.064580160800222</v>
       </c>
       <c r="K13">
-        <v>0.9829208153610817</v>
+        <v>1.071217606488326</v>
       </c>
       <c r="L13">
-        <v>0.9806721873226208</v>
+        <v>1.057623345803252</v>
       </c>
       <c r="M13">
-        <v>0.9812692205450205</v>
+        <v>1.077702596242288</v>
       </c>
       <c r="N13">
-        <v>0.9852370649238312</v>
+        <v>1.06609198673761</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.954259612914095</v>
+        <v>1.058442227744546</v>
       </c>
       <c r="D14">
-        <v>0.9693827344578855</v>
+        <v>1.068059641502961</v>
       </c>
       <c r="E14">
-        <v>0.9668240720927244</v>
+        <v>1.054377206138163</v>
       </c>
       <c r="F14">
-        <v>0.9678474103798794</v>
+        <v>1.074593681050359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029433162585673</v>
+        <v>1.039694045485906</v>
       </c>
       <c r="J14">
-        <v>0.9857058959870056</v>
+        <v>1.064853316696954</v>
       </c>
       <c r="K14">
-        <v>0.9849238675780511</v>
+        <v>1.071515419888586</v>
       </c>
       <c r="L14">
-        <v>0.9824178148435792</v>
+        <v>1.057881139768319</v>
       </c>
       <c r="M14">
-        <v>0.9834200678356129</v>
+        <v>1.078026938961708</v>
       </c>
       <c r="N14">
-        <v>0.9871057114213535</v>
+        <v>1.066365530547046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9556669211365344</v>
+        <v>1.05864766198427</v>
       </c>
       <c r="D15">
-        <v>0.9707256533809622</v>
+        <v>1.068262553692911</v>
       </c>
       <c r="E15">
-        <v>0.9680071700487796</v>
+        <v>1.054555679781667</v>
       </c>
       <c r="F15">
-        <v>0.969282834340452</v>
+        <v>1.074812857753464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029825305631224</v>
+        <v>1.039738478158299</v>
       </c>
       <c r="J15">
-        <v>0.9868447459125208</v>
+        <v>1.065021502569689</v>
       </c>
       <c r="K15">
-        <v>0.9861464604133255</v>
+        <v>1.071698800642822</v>
       </c>
       <c r="L15">
-        <v>0.9834832949332264</v>
+        <v>1.058039869525049</v>
       </c>
       <c r="M15">
-        <v>0.9847329500700551</v>
+        <v>1.07822666848994</v>
       </c>
       <c r="N15">
-        <v>0.988246178644391</v>
+        <v>1.066533955263012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9636646423111334</v>
+        <v>1.059841698149982</v>
       </c>
       <c r="D16">
-        <v>0.9783619012741513</v>
+        <v>1.069442042210209</v>
       </c>
       <c r="E16">
-        <v>0.9747364008655137</v>
+        <v>1.055593037030381</v>
       </c>
       <c r="F16">
-        <v>0.9774453197625311</v>
+        <v>1.076087050916949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032049008801948</v>
+        <v>1.03999595034726</v>
       </c>
       <c r="J16">
-        <v>0.9933162498176992</v>
+        <v>1.065998684389704</v>
       </c>
       <c r="K16">
-        <v>0.9930952827610884</v>
+        <v>1.072764463763714</v>
       </c>
       <c r="L16">
-        <v>0.9895392175160408</v>
+        <v>1.058962147097616</v>
       </c>
       <c r="M16">
-        <v>0.9921961918526052</v>
+        <v>1.079387538431257</v>
       </c>
       <c r="N16">
-        <v>0.9947268728274067</v>
+        <v>1.067512524793296</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9685219104398092</v>
+        <v>1.060589226066499</v>
       </c>
       <c r="D17">
-        <v>0.9830033042470634</v>
+        <v>1.070180559868968</v>
       </c>
       <c r="E17">
-        <v>0.9788279066703282</v>
+        <v>1.056242495172352</v>
       </c>
       <c r="F17">
-        <v>0.9824068554887874</v>
+        <v>1.076885009398535</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0333951315608</v>
+        <v>1.040156452435506</v>
       </c>
       <c r="J17">
-        <v>0.9972459019243666</v>
+        <v>1.066610135399346</v>
       </c>
       <c r="K17">
-        <v>0.9973160579978965</v>
+        <v>1.0734314536682</v>
       </c>
       <c r="L17">
-        <v>0.993217630349204</v>
+        <v>1.059539275331636</v>
       </c>
       <c r="M17">
-        <v>0.9967305520936378</v>
+        <v>1.08011429435798</v>
       </c>
       <c r="N17">
-        <v>0.998662105490803</v>
+        <v>1.068124844133506</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9713015486950949</v>
+        <v>1.061024728412274</v>
       </c>
       <c r="D18">
-        <v>0.9856606495241351</v>
+        <v>1.070610847786161</v>
       </c>
       <c r="E18">
-        <v>0.981170866559689</v>
+        <v>1.05662086961877</v>
       </c>
       <c r="F18">
-        <v>0.9852476168624875</v>
+        <v>1.077349981380716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034163822917586</v>
+        <v>1.040249711013167</v>
       </c>
       <c r="J18">
-        <v>0.9994943768776418</v>
+        <v>1.06696624704952</v>
       </c>
       <c r="K18">
-        <v>0.9997315761307601</v>
+        <v>1.073819973998593</v>
       </c>
       <c r="L18">
-        <v>0.9953227282435615</v>
+        <v>1.05987540885815</v>
       </c>
       <c r="M18">
-        <v>0.9993259489796504</v>
+        <v>1.080537692056767</v>
       </c>
       <c r="N18">
-        <v>1.000913773536415</v>
+        <v>1.068481461503069</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9722406001729178</v>
+        <v>1.061173136329992</v>
       </c>
       <c r="D19">
-        <v>0.9865585895972435</v>
+        <v>1.070757484654794</v>
       </c>
       <c r="E19">
-        <v>0.9819626441459458</v>
+        <v>1.05674981090974</v>
       </c>
       <c r="F19">
-        <v>0.9862075595532566</v>
+        <v>1.077508446919891</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034423226822988</v>
+        <v>1.04028144897888</v>
       </c>
       <c r="J19">
-        <v>1.000253923238669</v>
+        <v>1.067087581384855</v>
       </c>
       <c r="K19">
-        <v>1.000547630465003</v>
+        <v>1.073952361239057</v>
       </c>
       <c r="L19">
-        <v>0.9960339031858106</v>
+        <v>1.059989938210673</v>
       </c>
       <c r="M19">
-        <v>1.000202845014613</v>
+        <v>1.080681974488069</v>
       </c>
       <c r="N19">
-        <v>1.001674398540396</v>
+        <v>1.068602968147077</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9680063915662228</v>
+        <v>1.060509077156582</v>
       </c>
       <c r="D20">
-        <v>0.9825105651049092</v>
+        <v>1.070101373414575</v>
       </c>
       <c r="E20">
-        <v>0.9783934977249261</v>
+        <v>1.056172860479207</v>
       </c>
       <c r="F20">
-        <v>0.9818801175828414</v>
+        <v>1.076799444150269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033252432947266</v>
+        <v>1.040139269318741</v>
       </c>
       <c r="J20">
-        <v>0.9968288662212121</v>
+        <v>1.06654458822359</v>
       </c>
       <c r="K20">
-        <v>0.9968680781391026</v>
+        <v>1.07335994627982</v>
       </c>
       <c r="L20">
-        <v>0.9928272176974311</v>
+        <v>1.05947740633381</v>
       </c>
       <c r="M20">
-        <v>0.9962492462010227</v>
+        <v>1.080036372909225</v>
       </c>
       <c r="N20">
-        <v>0.9982444775491154</v>
+        <v>1.068059203873242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9535834230299756</v>
+        <v>1.058344012399324</v>
       </c>
       <c r="D21">
-        <v>0.9687375664407002</v>
+        <v>1.067962633888524</v>
       </c>
       <c r="E21">
-        <v>0.9662557199855364</v>
+        <v>1.054291880709893</v>
       </c>
       <c r="F21">
-        <v>0.9671578036859491</v>
+        <v>1.074488900614579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02924465906529</v>
+        <v>1.039672789005903</v>
       </c>
       <c r="J21">
-        <v>0.9851586889234719</v>
+        <v>1.064772902981811</v>
       </c>
       <c r="K21">
-        <v>0.9843364487408814</v>
+        <v>1.071427744618512</v>
       </c>
       <c r="L21">
-        <v>0.9819058865119826</v>
+        <v>1.057805247907198</v>
       </c>
       <c r="M21">
-        <v>0.9827892895874706</v>
+        <v>1.0779314508079</v>
       </c>
       <c r="N21">
-        <v>0.9865577272610242</v>
+        <v>1.066285002635205</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9439411768401046</v>
+        <v>1.056977913028491</v>
       </c>
       <c r="D22">
-        <v>0.959543640297176</v>
+        <v>1.066613464637292</v>
       </c>
       <c r="E22">
-        <v>0.95815897543243</v>
+        <v>1.053105098870996</v>
       </c>
       <c r="F22">
-        <v>0.9573306904023727</v>
+        <v>1.073031817966432</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026551127324184</v>
+        <v>1.039376211013377</v>
       </c>
       <c r="J22">
-        <v>0.9773554569765214</v>
+        <v>1.063653991799135</v>
       </c>
       <c r="K22">
-        <v>0.9759615283688566</v>
+        <v>1.07020802424306</v>
       </c>
       <c r="L22">
-        <v>0.9746075179124567</v>
+        <v>1.05674929959262</v>
       </c>
       <c r="M22">
-        <v>0.973797626303784</v>
+        <v>1.07660327464406</v>
       </c>
       <c r="N22">
-        <v>0.9787434138296658</v>
+        <v>1.065164502470307</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9491122016655603</v>
+        <v>1.057702574982281</v>
       </c>
       <c r="D23">
-        <v>0.9644728474005311</v>
+        <v>1.067329115349951</v>
       </c>
       <c r="E23">
-        <v>0.9624993467229458</v>
+        <v>1.053734633175139</v>
       </c>
       <c r="F23">
-        <v>0.9625993648774483</v>
+        <v>1.073804666126359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027996877065303</v>
+        <v>1.039533745984456</v>
       </c>
       <c r="J23">
-        <v>0.9815402676375774</v>
+        <v>1.064247626953047</v>
       </c>
       <c r="K23">
-        <v>0.9804525371726748</v>
+        <v>1.070855089969425</v>
       </c>
       <c r="L23">
-        <v>0.9785211590128604</v>
+        <v>1.057309519818202</v>
       </c>
       <c r="M23">
-        <v>0.9786190368664486</v>
+        <v>1.077307822087182</v>
       </c>
       <c r="N23">
-        <v>0.982934167401865</v>
+        <v>1.065758980654229</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9682394968196972</v>
+        <v>1.060545294599087</v>
       </c>
       <c r="D24">
-        <v>0.9827333660712403</v>
+        <v>1.070137155837916</v>
       </c>
       <c r="E24">
-        <v>0.9785899222510858</v>
+        <v>1.056204326769577</v>
       </c>
       <c r="F24">
-        <v>0.9821182912956974</v>
+        <v>1.076838108835023</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033316962975201</v>
+        <v>1.0401470347405</v>
       </c>
       <c r="J24">
-        <v>0.9970174407716378</v>
+        <v>1.066574207830838</v>
       </c>
       <c r="K24">
-        <v>0.9970706435103072</v>
+        <v>1.073392259007972</v>
       </c>
       <c r="L24">
-        <v>0.9930037527076998</v>
+        <v>1.059505363801756</v>
       </c>
       <c r="M24">
-        <v>0.9964668794772186</v>
+        <v>1.080071583823031</v>
       </c>
       <c r="N24">
-        <v>0.9984333198970321</v>
+        <v>1.068088865543729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9883607271939256</v>
+        <v>1.063823875431349</v>
       </c>
       <c r="D25">
-        <v>1.00198887845346</v>
+        <v>1.0733771017829</v>
       </c>
       <c r="E25">
-        <v>0.9955737499384196</v>
+        <v>1.059052940552648</v>
       </c>
       <c r="F25">
-        <v>1.002705887425532</v>
+        <v>1.080340147163526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038851067843465</v>
+        <v>1.040844638534465</v>
       </c>
       <c r="J25">
-        <v>1.01328625028335</v>
+        <v>1.069253065267704</v>
       </c>
       <c r="K25">
-        <v>1.014556397905188</v>
+        <v>1.076316038092202</v>
       </c>
       <c r="L25">
-        <v>1.008241168554146</v>
+        <v>1.062034141909558</v>
       </c>
       <c r="M25">
-        <v>1.015262342701397</v>
+        <v>1.083258978184648</v>
       </c>
       <c r="N25">
-        <v>1.01472523298431</v>
+        <v>1.070771527265425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066423424578895</v>
+        <v>1.003093271362365</v>
       </c>
       <c r="D2">
-        <v>1.07594709080343</v>
+        <v>1.016117081669533</v>
       </c>
       <c r="E2">
-        <v>1.061311736806519</v>
+        <v>1.008043433875845</v>
       </c>
       <c r="F2">
-        <v>1.083119670135001</v>
+        <v>1.017818084517051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041389914269709</v>
+        <v>1.042848005014499</v>
       </c>
       <c r="J2">
-        <v>1.071373501933423</v>
+        <v>1.025181855211046</v>
       </c>
       <c r="K2">
-        <v>1.078632317410541</v>
+        <v>1.027356355094273</v>
       </c>
       <c r="L2">
-        <v>1.06403614080342</v>
+        <v>1.01939183681048</v>
       </c>
       <c r="M2">
-        <v>1.085786113961695</v>
+        <v>1.029034643168609</v>
       </c>
       <c r="N2">
-        <v>1.072894975194427</v>
+        <v>1.026637731035448</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068302406642358</v>
+        <v>1.013160935963551</v>
       </c>
       <c r="D3">
-        <v>1.077805316909735</v>
+        <v>1.025786096081074</v>
       </c>
       <c r="E3">
-        <v>1.062944493270285</v>
+        <v>1.016580329583051</v>
       </c>
       <c r="F3">
-        <v>1.08513035300864</v>
+        <v>1.028165293816202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041779487324899</v>
+        <v>1.04554542720318</v>
       </c>
       <c r="J3">
-        <v>1.072904081978044</v>
+        <v>1.033299139035476</v>
       </c>
       <c r="K3">
-        <v>1.080305409465706</v>
+        <v>1.036099336683741</v>
       </c>
       <c r="L3">
-        <v>1.065481432677228</v>
+        <v>1.027005367936939</v>
       </c>
       <c r="M3">
-        <v>1.087612682570042</v>
+        <v>1.038450044456084</v>
       </c>
       <c r="N3">
-        <v>1.074427728838272</v>
+        <v>1.034766542333974</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069514431094897</v>
+        <v>1.019419635634894</v>
       </c>
       <c r="D4">
-        <v>1.079004231500361</v>
+        <v>1.03180287100443</v>
       </c>
       <c r="E4">
-        <v>1.063997719295265</v>
+        <v>1.021893479618031</v>
       </c>
       <c r="F4">
-        <v>1.086428074374454</v>
+        <v>1.034606554154266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042028666562766</v>
+        <v>1.047206016452337</v>
       </c>
       <c r="J4">
-        <v>1.073890400340859</v>
+        <v>1.038339300423212</v>
       </c>
       <c r="K4">
-        <v>1.081384096031696</v>
+        <v>1.041532036805692</v>
       </c>
       <c r="L4">
-        <v>1.0664128832819</v>
+        <v>1.031734659727859</v>
       </c>
       <c r="M4">
-        <v>1.088790862341889</v>
+        <v>1.044304506568849</v>
       </c>
       <c r="N4">
-        <v>1.075415447886293</v>
+        <v>1.039813861328995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070023075806747</v>
+        <v>1.021994145866403</v>
       </c>
       <c r="D5">
-        <v>1.079507440618441</v>
+        <v>1.034279188412255</v>
       </c>
       <c r="E5">
-        <v>1.064439727451967</v>
+        <v>1.024080349696752</v>
       </c>
       <c r="F5">
-        <v>1.086972860973436</v>
+        <v>1.037258201401747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042132732163872</v>
+        <v>1.047885100624605</v>
       </c>
       <c r="J5">
-        <v>1.074304090895797</v>
+        <v>1.040411027227443</v>
       </c>
       <c r="K5">
-        <v>1.081836656133082</v>
+        <v>1.04376609149035</v>
       </c>
       <c r="L5">
-        <v>1.066803582708729</v>
+        <v>1.033679041146236</v>
       </c>
       <c r="M5">
-        <v>1.089285294713678</v>
+        <v>1.046712960347923</v>
       </c>
       <c r="N5">
-        <v>1.075829725929271</v>
+        <v>1.041888530222919</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070108427856933</v>
+        <v>1.022423218836478</v>
       </c>
       <c r="D6">
-        <v>1.07959188442508</v>
+        <v>1.034691971667873</v>
       </c>
       <c r="E6">
-        <v>1.064513897998716</v>
+        <v>1.024444890941976</v>
       </c>
       <c r="F6">
-        <v>1.087064288159395</v>
+        <v>1.037700248495623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042150164958043</v>
+        <v>1.047998040503831</v>
       </c>
       <c r="J6">
-        <v>1.07437349567744</v>
+        <v>1.040756212438854</v>
       </c>
       <c r="K6">
-        <v>1.081912589543742</v>
+        <v>1.04413838110002</v>
       </c>
       <c r="L6">
-        <v>1.066869131558899</v>
+        <v>1.034003033395982</v>
       </c>
       <c r="M6">
-        <v>1.089368261360324</v>
+        <v>1.047114369329887</v>
       </c>
       <c r="N6">
-        <v>1.075899229273664</v>
+        <v>1.042234205636924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069521231101833</v>
+        <v>1.019454253298301</v>
       </c>
       <c r="D7">
-        <v>1.079010958580107</v>
+        <v>1.031836163207618</v>
       </c>
       <c r="E7">
-        <v>1.064003628425592</v>
+        <v>1.021922879936217</v>
       </c>
       <c r="F7">
-        <v>1.086435356858808</v>
+        <v>1.034642201013802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04203005979418</v>
+        <v>1.047215163592702</v>
       </c>
       <c r="J7">
-        <v>1.073895931834895</v>
+        <v>1.038367163714316</v>
       </c>
       <c r="K7">
-        <v>1.081390146751719</v>
+        <v>1.041562079404756</v>
       </c>
       <c r="L7">
-        <v>1.066418107273171</v>
+        <v>1.031760808614494</v>
       </c>
       <c r="M7">
-        <v>1.088797472381285</v>
+        <v>1.044336890580458</v>
       </c>
       <c r="N7">
-        <v>1.075420987235685</v>
+        <v>1.039841764189168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067059234801739</v>
+        <v>1.006551578990643</v>
       </c>
       <c r="D8">
-        <v>1.076575819479822</v>
+        <v>1.01943713512299</v>
       </c>
       <c r="E8">
-        <v>1.061864222833341</v>
+        <v>1.010974525879282</v>
       </c>
       <c r="F8">
-        <v>1.083799890686113</v>
+        <v>1.021370509404852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041522175951737</v>
+        <v>1.043777994510126</v>
       </c>
       <c r="J8">
-        <v>1.071891621183509</v>
+        <v>1.02797142590871</v>
       </c>
       <c r="K8">
-        <v>1.07919856824161</v>
+        <v>1.030360100620865</v>
       </c>
       <c r="L8">
-        <v>1.064525369667447</v>
+        <v>1.022007864265998</v>
       </c>
       <c r="M8">
-        <v>1.086404195721812</v>
+        <v>1.032268579975248</v>
       </c>
       <c r="N8">
-        <v>1.073413830233277</v>
+        <v>1.029431263243471</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062690857370306</v>
+        <v>0.9816162880512278</v>
       </c>
       <c r="D9">
-        <v>1.072257267114151</v>
+        <v>0.9955294128940618</v>
       </c>
       <c r="E9">
-        <v>1.058068483275229</v>
+        <v>0.9898747156985112</v>
       </c>
       <c r="F9">
-        <v>1.0791294710614</v>
+        <v>0.9957986461280077</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040604776004226</v>
+        <v>1.037004654765862</v>
       </c>
       <c r="J9">
-        <v>1.068327858250897</v>
+        <v>1.007835352739129</v>
       </c>
       <c r="K9">
-        <v>1.075305934923642</v>
+        <v>1.008695441085125</v>
       </c>
       <c r="L9">
-        <v>1.061160712396543</v>
+        <v>1.003134232864638</v>
       </c>
       <c r="M9">
-        <v>1.082157489065545</v>
+        <v>1.008960257141174</v>
       </c>
       <c r="N9">
-        <v>1.069845006348531</v>
+        <v>1.00926659454035</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059757149637833</v>
+        <v>0.9631082065622385</v>
       </c>
       <c r="D10">
-        <v>1.069358517532472</v>
+        <v>0.977830370862766</v>
       </c>
       <c r="E10">
-        <v>1.055519581534449</v>
+        <v>0.9742679098919732</v>
       </c>
       <c r="F10">
-        <v>1.075996810603094</v>
+        <v>0.9768771437778468</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039977763267059</v>
+        <v>1.031894578313642</v>
       </c>
       <c r="J10">
-        <v>1.065929511358373</v>
+        <v>0.9928660400234253</v>
       </c>
       <c r="K10">
-        <v>1.072689016133125</v>
+        <v>0.9926117837826824</v>
       </c>
       <c r="L10">
-        <v>1.058896858555863</v>
+        <v>0.9891178451287707</v>
       </c>
       <c r="M10">
-        <v>1.079305338907699</v>
+        <v>0.9916768274733001</v>
       </c>
       <c r="N10">
-        <v>1.067443253528325</v>
+        <v>0.9942760236835849</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058481448297923</v>
+        <v>0.9545290246764452</v>
       </c>
       <c r="D11">
-        <v>1.068098380126853</v>
+        <v>0.9696398014590071</v>
       </c>
       <c r="E11">
-        <v>1.054411279408068</v>
+        <v>0.9670505380578183</v>
       </c>
       <c r="F11">
-        <v>1.074635524158238</v>
+        <v>0.9681221844347732</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039702531388888</v>
+        <v>1.029508252101758</v>
       </c>
       <c r="J11">
-        <v>1.064885427345862</v>
+        <v>0.9859239163734264</v>
       </c>
       <c r="K11">
-        <v>1.0715504308365</v>
+        <v>0.9851579139624818</v>
       </c>
       <c r="L11">
-        <v>1.057911444877968</v>
+        <v>0.9826217838955449</v>
       </c>
       <c r="M11">
-        <v>1.078065070431861</v>
+        <v>0.9836713939258049</v>
       </c>
       <c r="N11">
-        <v>1.066397686796759</v>
+        <v>0.9873240414217305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058006762105004</v>
+        <v>0.9512446264574583</v>
       </c>
       <c r="D12">
-        <v>1.067629540372663</v>
+        <v>0.9665064883693258</v>
       </c>
       <c r="E12">
-        <v>1.053998893689268</v>
+        <v>0.9642904562789691</v>
       </c>
       <c r="F12">
-        <v>1.07412913173244</v>
+        <v>0.9647730615786181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039599731083466</v>
+        <v>1.02859225343622</v>
       </c>
       <c r="J12">
-        <v>1.064496748689955</v>
+        <v>0.983265987533419</v>
       </c>
       <c r="K12">
-        <v>1.071126670004344</v>
+        <v>0.9823047884830269</v>
       </c>
       <c r="L12">
-        <v>1.057544625655912</v>
+        <v>0.9801353348182569</v>
       </c>
       <c r="M12">
-        <v>1.077603564352484</v>
+        <v>0.9806077721998054</v>
       </c>
       <c r="N12">
-        <v>1.066008456172578</v>
+        <v>0.9846623380179016</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058108622040417</v>
+        <v>0.9519537998938088</v>
       </c>
       <c r="D13">
-        <v>1.067730143253113</v>
+        <v>0.9671829302342096</v>
       </c>
       <c r="E13">
-        <v>1.054087384416632</v>
+        <v>0.9648862768991538</v>
       </c>
       <c r="F13">
-        <v>1.074237788977102</v>
+        <v>0.9654960914063194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039621807855809</v>
+        <v>1.02879014335371</v>
       </c>
       <c r="J13">
-        <v>1.064580160800222</v>
+        <v>0.983839899418641</v>
       </c>
       <c r="K13">
-        <v>1.071217606488326</v>
+        <v>0.9829208153610793</v>
       </c>
       <c r="L13">
-        <v>1.057623345803252</v>
+        <v>0.9806721873226187</v>
       </c>
       <c r="M13">
-        <v>1.077702596242288</v>
+        <v>0.9812692205450185</v>
       </c>
       <c r="N13">
-        <v>1.06609198673761</v>
+        <v>0.9852370649238296</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058442227744546</v>
+        <v>0.9542596129140942</v>
       </c>
       <c r="D14">
-        <v>1.068059641502961</v>
+        <v>0.9693827344578848</v>
       </c>
       <c r="E14">
-        <v>1.054377206138163</v>
+        <v>0.9668240720927236</v>
       </c>
       <c r="F14">
-        <v>1.074593681050359</v>
+        <v>0.9678474103798785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039694045485906</v>
+        <v>1.029433162585672</v>
       </c>
       <c r="J14">
-        <v>1.064853316696954</v>
+        <v>0.9857058959870048</v>
       </c>
       <c r="K14">
-        <v>1.071515419888586</v>
+        <v>0.9849238675780503</v>
       </c>
       <c r="L14">
-        <v>1.057881139768319</v>
+        <v>0.9824178148435783</v>
       </c>
       <c r="M14">
-        <v>1.078026938961708</v>
+        <v>0.9834200678356118</v>
       </c>
       <c r="N14">
-        <v>1.066365530547046</v>
+        <v>0.9871057114213528</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05864766198427</v>
+        <v>0.9556669211365327</v>
       </c>
       <c r="D15">
-        <v>1.068262553692911</v>
+        <v>0.9707256533809608</v>
       </c>
       <c r="E15">
-        <v>1.054555679781667</v>
+        <v>0.968007170048778</v>
       </c>
       <c r="F15">
-        <v>1.074812857753464</v>
+        <v>0.9692828343404507</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039738478158299</v>
+        <v>1.029825305631224</v>
       </c>
       <c r="J15">
-        <v>1.065021502569689</v>
+        <v>0.9868447459125194</v>
       </c>
       <c r="K15">
-        <v>1.071698800642822</v>
+        <v>0.9861464604133242</v>
       </c>
       <c r="L15">
-        <v>1.058039869525049</v>
+        <v>0.9834832949332249</v>
       </c>
       <c r="M15">
-        <v>1.07822666848994</v>
+        <v>0.9847329500700539</v>
       </c>
       <c r="N15">
-        <v>1.066533955263012</v>
+        <v>0.9882461786443896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059841698149982</v>
+        <v>0.9636646423111307</v>
       </c>
       <c r="D16">
-        <v>1.069442042210209</v>
+        <v>0.9783619012741483</v>
       </c>
       <c r="E16">
-        <v>1.055593037030381</v>
+        <v>0.9747364008655109</v>
       </c>
       <c r="F16">
-        <v>1.076087050916949</v>
+        <v>0.977445319762528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03999595034726</v>
+        <v>1.032049008801947</v>
       </c>
       <c r="J16">
-        <v>1.065998684389704</v>
+        <v>0.9933162498176964</v>
       </c>
       <c r="K16">
-        <v>1.072764463763714</v>
+        <v>0.9930952827610855</v>
       </c>
       <c r="L16">
-        <v>1.058962147097616</v>
+        <v>0.9895392175160383</v>
       </c>
       <c r="M16">
-        <v>1.079387538431257</v>
+        <v>0.9921961918526021</v>
       </c>
       <c r="N16">
-        <v>1.067512524793296</v>
+        <v>0.9947268728274037</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060589226066499</v>
+        <v>0.9685219104398115</v>
       </c>
       <c r="D17">
-        <v>1.070180559868968</v>
+        <v>0.9830033042470657</v>
       </c>
       <c r="E17">
-        <v>1.056242495172352</v>
+        <v>0.9788279066703294</v>
       </c>
       <c r="F17">
-        <v>1.076885009398535</v>
+        <v>0.98240685548879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040156452435506</v>
+        <v>1.0333951315608</v>
       </c>
       <c r="J17">
-        <v>1.066610135399346</v>
+        <v>0.9972459019243687</v>
       </c>
       <c r="K17">
-        <v>1.0734314536682</v>
+        <v>0.9973160579978989</v>
       </c>
       <c r="L17">
-        <v>1.059539275331636</v>
+        <v>0.9932176303492055</v>
       </c>
       <c r="M17">
-        <v>1.08011429435798</v>
+        <v>0.9967305520936401</v>
       </c>
       <c r="N17">
-        <v>1.068124844133506</v>
+        <v>0.9986621054908049</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061024728412274</v>
+        <v>0.9713015486950934</v>
       </c>
       <c r="D18">
-        <v>1.070610847786161</v>
+        <v>0.9856606495241337</v>
       </c>
       <c r="E18">
-        <v>1.05662086961877</v>
+        <v>0.9811708665596877</v>
       </c>
       <c r="F18">
-        <v>1.077349981380716</v>
+        <v>0.9852476168624861</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040249711013167</v>
+        <v>1.034163822917586</v>
       </c>
       <c r="J18">
-        <v>1.06696624704952</v>
+        <v>0.9994943768776403</v>
       </c>
       <c r="K18">
-        <v>1.073819973998593</v>
+        <v>0.9997315761307587</v>
       </c>
       <c r="L18">
-        <v>1.05987540885815</v>
+        <v>0.9953227282435602</v>
       </c>
       <c r="M18">
-        <v>1.080537692056767</v>
+        <v>0.9993259489796491</v>
       </c>
       <c r="N18">
-        <v>1.068481461503069</v>
+        <v>1.000913773536414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061173136329992</v>
+        <v>0.9722406001729169</v>
       </c>
       <c r="D19">
-        <v>1.070757484654794</v>
+        <v>0.9865585895972427</v>
       </c>
       <c r="E19">
-        <v>1.05674981090974</v>
+        <v>0.9819626441459451</v>
       </c>
       <c r="F19">
-        <v>1.077508446919891</v>
+        <v>0.9862075595532556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04028144897888</v>
+        <v>1.034423226822988</v>
       </c>
       <c r="J19">
-        <v>1.067087581384855</v>
+        <v>1.000253923238668</v>
       </c>
       <c r="K19">
-        <v>1.073952361239057</v>
+        <v>1.000547630465002</v>
       </c>
       <c r="L19">
-        <v>1.059989938210673</v>
+        <v>0.99603390318581</v>
       </c>
       <c r="M19">
-        <v>1.080681974488069</v>
+        <v>1.000202845014612</v>
       </c>
       <c r="N19">
-        <v>1.068602968147077</v>
+        <v>1.001674398540396</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060509077156582</v>
+        <v>0.9680063915662213</v>
       </c>
       <c r="D20">
-        <v>1.070101373414575</v>
+        <v>0.9825105651049073</v>
       </c>
       <c r="E20">
-        <v>1.056172860479207</v>
+        <v>0.978393497724925</v>
       </c>
       <c r="F20">
-        <v>1.076799444150269</v>
+        <v>0.9818801175828401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040139269318741</v>
+        <v>1.033252432947265</v>
       </c>
       <c r="J20">
-        <v>1.06654458822359</v>
+        <v>0.9968288662212107</v>
       </c>
       <c r="K20">
-        <v>1.07335994627982</v>
+        <v>0.9968680781391008</v>
       </c>
       <c r="L20">
-        <v>1.05947740633381</v>
+        <v>0.99282721769743</v>
       </c>
       <c r="M20">
-        <v>1.080036372909225</v>
+        <v>0.9962492462010213</v>
       </c>
       <c r="N20">
-        <v>1.068059203873242</v>
+        <v>0.9982444775491139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058344012399324</v>
+        <v>0.9535834230299759</v>
       </c>
       <c r="D21">
-        <v>1.067962633888524</v>
+        <v>0.9687375664407004</v>
       </c>
       <c r="E21">
-        <v>1.054291880709893</v>
+        <v>0.9662557199855362</v>
       </c>
       <c r="F21">
-        <v>1.074488900614579</v>
+        <v>0.9671578036859492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039672789005903</v>
+        <v>1.02924465906529</v>
       </c>
       <c r="J21">
-        <v>1.064772902981811</v>
+        <v>0.9851586889234721</v>
       </c>
       <c r="K21">
-        <v>1.071427744618512</v>
+        <v>0.9843364487408816</v>
       </c>
       <c r="L21">
-        <v>1.057805247907198</v>
+        <v>0.9819058865119825</v>
       </c>
       <c r="M21">
-        <v>1.0779314508079</v>
+        <v>0.9827892895874706</v>
       </c>
       <c r="N21">
-        <v>1.066285002635205</v>
+        <v>0.9865577272610243</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056977913028491</v>
+        <v>0.9439411768401021</v>
       </c>
       <c r="D22">
-        <v>1.066613464637292</v>
+        <v>0.9595436402971733</v>
       </c>
       <c r="E22">
-        <v>1.053105098870996</v>
+        <v>0.9581589754324277</v>
       </c>
       <c r="F22">
-        <v>1.073031817966432</v>
+        <v>0.9573306904023698</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039376211013377</v>
+        <v>1.026551127324183</v>
       </c>
       <c r="J22">
-        <v>1.063653991799135</v>
+        <v>0.977355456976519</v>
       </c>
       <c r="K22">
-        <v>1.07020802424306</v>
+        <v>0.975961528368854</v>
       </c>
       <c r="L22">
-        <v>1.05674929959262</v>
+        <v>0.9746075179124539</v>
       </c>
       <c r="M22">
-        <v>1.07660327464406</v>
+        <v>0.9737976263037812</v>
       </c>
       <c r="N22">
-        <v>1.065164502470307</v>
+        <v>0.9787434138296635</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057702574982281</v>
+        <v>0.9491122016655592</v>
       </c>
       <c r="D23">
-        <v>1.067329115349951</v>
+        <v>0.9644728474005299</v>
       </c>
       <c r="E23">
-        <v>1.053734633175139</v>
+        <v>0.9624993467229448</v>
       </c>
       <c r="F23">
-        <v>1.073804666126359</v>
+        <v>0.9625993648774471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039533745984456</v>
+        <v>1.027996877065302</v>
       </c>
       <c r="J23">
-        <v>1.064247626953047</v>
+        <v>0.9815402676375763</v>
       </c>
       <c r="K23">
-        <v>1.070855089969425</v>
+        <v>0.9804525371726737</v>
       </c>
       <c r="L23">
-        <v>1.057309519818202</v>
+        <v>0.9785211590128594</v>
       </c>
       <c r="M23">
-        <v>1.077307822087182</v>
+        <v>0.9786190368664472</v>
       </c>
       <c r="N23">
-        <v>1.065758980654229</v>
+        <v>0.9829341674018639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060545294599087</v>
+        <v>0.9682394968196969</v>
       </c>
       <c r="D24">
-        <v>1.070137155837916</v>
+        <v>0.9827333660712398</v>
       </c>
       <c r="E24">
-        <v>1.056204326769577</v>
+        <v>0.9785899222510853</v>
       </c>
       <c r="F24">
-        <v>1.076838108835023</v>
+        <v>0.9821182912956973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0401470347405</v>
+        <v>1.033316962975201</v>
       </c>
       <c r="J24">
-        <v>1.066574207830838</v>
+        <v>0.9970174407716373</v>
       </c>
       <c r="K24">
-        <v>1.073392259007972</v>
+        <v>0.9970706435103069</v>
       </c>
       <c r="L24">
-        <v>1.059505363801756</v>
+        <v>0.9930037527076994</v>
       </c>
       <c r="M24">
-        <v>1.080071583823031</v>
+        <v>0.9964668794772183</v>
       </c>
       <c r="N24">
-        <v>1.068088865543729</v>
+        <v>0.9984333198970318</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063823875431349</v>
+        <v>0.9883607271939256</v>
       </c>
       <c r="D25">
-        <v>1.0733771017829</v>
+        <v>1.00198887845346</v>
       </c>
       <c r="E25">
-        <v>1.059052940552648</v>
+        <v>0.9955737499384198</v>
       </c>
       <c r="F25">
-        <v>1.080340147163526</v>
+        <v>1.002705887425532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040844638534465</v>
+        <v>1.038851067843465</v>
       </c>
       <c r="J25">
-        <v>1.069253065267704</v>
+        <v>1.01328625028335</v>
       </c>
       <c r="K25">
-        <v>1.076316038092202</v>
+        <v>1.014556397905188</v>
       </c>
       <c r="L25">
-        <v>1.062034141909558</v>
+        <v>1.008241168554146</v>
       </c>
       <c r="M25">
-        <v>1.083258978184648</v>
+        <v>1.015262342701397</v>
       </c>
       <c r="N25">
-        <v>1.070771527265425</v>
+        <v>1.01472523298431</v>
       </c>
     </row>
   </sheetData>
